--- a/Ajakava.xlsx
+++ b/Ajakava.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Punktid</t>
   </si>
@@ -113,91 +113,94 @@
     <t>Pangalingi kasutamine</t>
   </si>
   <si>
+    <t>AJAX kasutamine</t>
+  </si>
+  <si>
+    <t>Veebilehel sisu esitamine kaardil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võrguühenduseta kasutatav </t>
+  </si>
+  <si>
+    <t>Mitmekeelne kasutajaliides</t>
+  </si>
+  <si>
+    <t>Autoriseerimine (meldinute sisu)</t>
+  </si>
+  <si>
+    <t>Otsingumootori optimeerimine</t>
+  </si>
+  <si>
+    <t>Keerukamad võtted</t>
+  </si>
+  <si>
+    <t>Autentimine (ID-kaart või Smart ID)</t>
+  </si>
+  <si>
+    <t>Külastajate statistika kogumine</t>
+  </si>
+  <si>
+    <t>Päringute arvu ja mahu piiramine</t>
+  </si>
+  <si>
+    <t>Automaattestid</t>
+  </si>
+  <si>
+    <t>Jõudlustestid</t>
+  </si>
+  <si>
+    <t>Tähtajalised võtted</t>
+  </si>
+  <si>
+    <t>Kontrollid</t>
+  </si>
+  <si>
+    <t>(X)HTML kehtivus</t>
+  </si>
+  <si>
+    <t>CSS kehtivus</t>
+  </si>
+  <si>
+    <t>WCAG 2.0</t>
+  </si>
+  <si>
+    <t>Veebilehitsejate tugi</t>
+  </si>
+  <si>
+    <t>Aknasuuruste tugi</t>
+  </si>
+  <si>
+    <t>Head praktikad</t>
+  </si>
+  <si>
+    <t>alates 2</t>
+  </si>
+  <si>
+    <t>Kokku:</t>
+  </si>
+  <si>
+    <t>Tegija</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Koos</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>0.5-2</t>
+  </si>
+  <si>
+    <t>0.5-1</t>
+  </si>
+  <si>
     <t>Autentimine (Facebook, Google..)</t>
   </si>
   <si>
-    <t>AJAX kasutamine</t>
-  </si>
-  <si>
-    <t>Veebilehel sisu esitamine kaardil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võrguühenduseta kasutatav </t>
-  </si>
-  <si>
-    <t>Mitmekeelne kasutajaliides</t>
-  </si>
-  <si>
-    <t>Autoriseerimine (meldinute sisu)</t>
-  </si>
-  <si>
-    <t>Otsingumootori optimeerimine</t>
-  </si>
-  <si>
-    <t>Keerukamad võtted</t>
-  </si>
-  <si>
-    <t>Autentimine (ID-kaart või Smart ID)</t>
-  </si>
-  <si>
-    <t>Külastajate statistika kogumine</t>
-  </si>
-  <si>
-    <t>Päringute arvu ja mahu piiramine</t>
-  </si>
-  <si>
-    <t>Automaattestid</t>
-  </si>
-  <si>
-    <t>Jõudlustestid</t>
-  </si>
-  <si>
-    <t>Tähtajalised võtted</t>
-  </si>
-  <si>
-    <t>Kontrollid</t>
-  </si>
-  <si>
-    <t>(X)HTML kehtivus</t>
-  </si>
-  <si>
-    <t>CSS kehtivus</t>
-  </si>
-  <si>
     <t>Kujundus, sisu ja loogika eraldatud</t>
-  </si>
-  <si>
-    <t>WCAG 2.0</t>
-  </si>
-  <si>
-    <t>Veebilehitsejate tugi</t>
-  </si>
-  <si>
-    <t>Aknasuuruste tugi</t>
-  </si>
-  <si>
-    <t>Head praktikad</t>
-  </si>
-  <si>
-    <t>0,5-2</t>
-  </si>
-  <si>
-    <t>0,5-1</t>
-  </si>
-  <si>
-    <t>alates 2</t>
-  </si>
-  <si>
-    <t>Kokku:</t>
-  </si>
-  <si>
-    <t>Tegija</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Koos</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,16 +283,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -298,7 +310,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -308,8 +322,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -335,19 +353,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -355,13 +369,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,38 +708,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>55</v>
+      <c r="K1" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,20 +749,20 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,20 +772,20 @@
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -775,20 +795,20 @@
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -798,90 +818,104 @@
       <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
+        <v>6</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -891,17 +925,21 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -910,17 +948,21 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -929,17 +971,21 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -948,17 +994,21 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -967,17 +1017,21 @@
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -986,17 +1040,21 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1005,17 +1063,21 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1024,16 +1086,16 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1043,17 +1105,21 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="8">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1062,16 +1128,16 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,16 +1147,16 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,31 +1166,31 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1134,17 +1200,21 @@
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="8">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1153,370 +1223,520 @@
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="8">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="8">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="8">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="8">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <v>3</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="8">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <v>3</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="8">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="14">
+        <v>2</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14">
+        <v>2</v>
+      </c>
+      <c r="H36" s="14">
+        <v>2</v>
+      </c>
+      <c r="I36" s="14">
+        <v>2</v>
+      </c>
+      <c r="J36" s="14">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14">
+        <v>2</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14">
+        <v>2</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2</v>
+      </c>
+      <c r="I37" s="14">
+        <v>2</v>
+      </c>
+      <c r="J37" s="14">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>2</v>
+      </c>
+      <c r="G38" s="14">
+        <v>2</v>
+      </c>
+      <c r="H38" s="14">
+        <v>2</v>
+      </c>
+      <c r="I38" s="14">
+        <v>2</v>
+      </c>
+      <c r="J38" s="14">
+        <v>2</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="14">
+        <v>3</v>
+      </c>
+      <c r="F42" s="14">
+        <v>3</v>
+      </c>
+      <c r="G42" s="14">
+        <v>3</v>
+      </c>
+      <c r="H42" s="14">
+        <v>3</v>
+      </c>
+      <c r="I42" s="14">
+        <v>3</v>
+      </c>
+      <c r="J42" s="14">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="17">
         <v>8</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17">
-        <v>100</v>
-      </c>
+      <c r="E43" s="18">
+        <f>SUM(E1:E42)</f>
+        <v>26.8</v>
+      </c>
+      <c r="F43" s="18">
+        <f>SUM(F1:F42)</f>
+        <v>26.4</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" ref="G43:J43" si="0">SUM(G1:G42)</f>
+        <v>25</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K43" s="19">
+        <f>SUM(D43:J43)</f>
+        <v>142.6</v>
+      </c>
+      <c r="L43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1527,6 +1747,6 @@
     <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>